--- a/simulations/raw_inclusion_exclusion/Chou_2004 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Chou_2004 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E3">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F3">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.0803680981595092</v>
+        <v>0.3717791411042945</v>
       </c>
       <c r="I3">
-        <v>0.4664473233257934</v>
+        <v>0.2388100623757625</v>
       </c>
       <c r="J3">
-        <v>0.1111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K3">
-        <v>761.1111111111111</v>
+        <v>392.1111111111111</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -755,34 +755,34 @@
         <v>8</v>
       </c>
       <c r="Q3">
-        <v>1221</v>
+        <v>1052</v>
       </c>
       <c r="R3">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="S3">
-        <v>485</v>
+        <v>152</v>
       </c>
       <c r="T3">
-        <v>1148</v>
+        <v>476</v>
       </c>
       <c r="U3">
-        <v>1220</v>
+        <v>745</v>
       </c>
       <c r="V3">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="W3">
-        <v>1532</v>
+        <v>1601</v>
       </c>
       <c r="X3">
-        <v>1136</v>
+        <v>1469</v>
       </c>
       <c r="Y3">
-        <v>473</v>
+        <v>1145</v>
       </c>
       <c r="Z3">
-        <v>401</v>
+        <v>876</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.945096</v>
+        <v>0.987662</v>
       </c>
       <c r="AH3">
-        <v>0.700802</v>
+        <v>0.906231</v>
       </c>
       <c r="AI3">
-        <v>0.291795</v>
+        <v>0.706354</v>
       </c>
       <c r="AJ3">
-        <v>0.247378</v>
+        <v>0.540407</v>
       </c>
     </row>
   </sheetData>
